--- a/data_samples/afl-reduced_results.xlsx
+++ b/data_samples/afl-reduced_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AAC7F1-4D71-4408-B53C-4A6F3C2A7205}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11794BB-3086-4032-96EA-986893CF0E4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20355" windowHeight="15645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -606,7 +606,7 @@
   <dimension ref="A1:H2364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,19 +652,19 @@
         <v>44325</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F2">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G2" s="5">
         <v>2.5299999999999998</v>
